--- a/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
+++ b/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$108</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$82</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="100">
   <si>
     <t>表格名稱：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,39 +85,243 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>uniqueidentifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-clustered index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網頁代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上層網頁代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>階層編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleLevelNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網址別名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleAlias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>語言文化代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CultureName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叢集索引用的流水號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeqnoForCluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網頁標題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleSubject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橫幅區圖檔名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BannerPicFileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>網頁內容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uniqueidentifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>non-clustered index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網頁代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArticleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上層網頁代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParentId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>階層編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArticleLevelNo</t>
+    <t>ArticleContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(max)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被點閱次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版面模式代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LayoutModeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開啟方式代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超連結網址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2048)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超連結開啟方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制項名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ControlName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子網頁的控制項名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隱藏本篇文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsHideSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隱藏下層項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsHideChild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始有效日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結束有效日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: Wide content, 2: 2-col content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: page, 2: to sub-page, 3: URL, 4: use control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在指定語言版本中顯示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -125,71 +329,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>排序編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SortNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>網址別名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArticleAlias</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>語言文化代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CultureName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叢集索引用的流水號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SeqnoForCluster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clusterd index; identity; *Don't use this field in program!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網頁標題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArticleSubject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橫幅區圖檔名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BannerPicFileName</t>
+    <t>發表者帳號</t>
+  </si>
+  <si>
+    <t>PostAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發表日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改者帳號</t>
+  </si>
+  <si>
+    <t>MdfAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MdfDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止刪除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DontDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubItemControlName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsShowInLang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbo.ArticleMultiLang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -197,131 +411,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ArticleContext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(max)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被點閱次數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReadCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default(0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版面模式代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LayoutModeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>開啟方式代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超連結網址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LinkUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2048)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超連結開啟方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LinkTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制項名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ControlName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子網頁的控制項名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChildArticleControlName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隱藏本篇文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsHideSelf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隱藏下層項目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsHideChild</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>開始有效日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>結束有效日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1: Wide content, 2: 2-col content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1: page, 2: to sub-page, 3: URL, 4: use control</t>
+    <t>網頁內容的多國語系資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity; clusterd index; *Don't use this field in program!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,11 +605,20 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -528,17 +631,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,9 +928,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -854,34 +950,34 @@
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1"/>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="15"/>
+      <c r="F3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
@@ -914,19 +1010,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -935,19 +1031,19 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -956,13 +1052,13 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -973,13 +1069,13 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -990,13 +1086,13 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1007,13 +1103,13 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1024,17 +1120,17 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="19" t="s">
-        <v>74</v>
+      <c r="G11" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1043,17 +1139,17 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1062,13 +1158,13 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1079,13 +1175,13 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1096,13 +1192,13 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1113,13 +1209,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1130,19 +1226,19 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1151,19 +1247,19 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1172,13 +1268,13 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1189,13 +1285,13 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1205,9 +1301,15 @@
         <v>17</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
@@ -1216,20 +1318,36 @@
         <v>18</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
@@ -1238,9 +1356,15 @@
         <v>20</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
@@ -1249,9 +1373,15 @@
         <v>21</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
@@ -1260,367 +1390,410 @@
         <v>22</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="1">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="A27" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="1">
-        <v>24</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="1">
-        <v>25</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="1">
-        <v>26</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1">
-        <v>27</v>
-      </c>
+      <c r="A30" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.5">
+      <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1">
-        <v>28</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="1">
-        <v>29</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="A33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="1">
+      <c r="A34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <v>3</v>
+      </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-    </row>
-    <row r="39" spans="1:7" ht="16.5">
-      <c r="A39" s="1"/>
+      <c r="A38" s="1">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>5</v>
+      </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="12"/>
+      <c r="C39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>6</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="15"/>
+      <c r="A41" s="1">
+        <v>7</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="A42" s="1">
         <v>8</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>1</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="3" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
-        <v>2</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="1">
-        <v>4</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="A46" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="1">
-        <v>5</v>
-      </c>
+      <c r="A47" s="1"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="12"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="1">
-        <v>6</v>
-      </c>
+      <c r="A48" s="1"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="1">
-        <v>7</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1">
-        <v>8</v>
-      </c>
+      <c r="A49" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" ht="16.5">
+      <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="15"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1">
+    <row r="52" spans="1:7">
+      <c r="A52" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="18"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="1">
-        <v>10</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1">
-        <v>11</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="G53" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1">
-        <v>12</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -1629,7 +1802,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
@@ -1640,7 +1813,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
@@ -1651,7 +1824,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
@@ -1662,7 +1835,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
@@ -1673,7 +1846,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
@@ -1684,7 +1857,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="3"/>
@@ -1695,7 +1868,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
@@ -1705,364 +1878,79 @@
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="1">
-        <v>20</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="A62" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="1">
-        <v>21</v>
-      </c>
+      <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="12"/>
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="1">
-        <v>22</v>
-      </c>
+      <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="12"/>
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="1">
-        <v>23</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="1">
-        <v>24</v>
-      </c>
+      <c r="A65" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+    </row>
+    <row r="66" spans="1:7" ht="16.5">
+      <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="15"/>
       <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="1">
-        <v>25</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="1">
-        <v>26</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="1">
-        <v>27</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="1">
-        <v>28</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="1">
-        <v>29</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="1"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="1"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-    </row>
-    <row r="76" spans="1:7" ht="16.5">
-      <c r="A76" s="1"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="3"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="13"/>
-      <c r="G78" s="15"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="1">
-        <v>1</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="1">
-        <v>2</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="1">
-        <v>3</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="1">
-        <v>4</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="1">
-        <v>5</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="1">
-        <v>6</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="1">
-        <v>7</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="1">
-        <v>8</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="1"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="1"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="3"/>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-    </row>
-    <row r="92" spans="1:7" ht="16.5">
-      <c r="A92" s="1"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D74:F74"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D31:F31"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="A62:G62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
+++ b/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
   <si>
     <t>表格名稱：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,245 +177,241 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BannerPicFileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網頁內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(max)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被點閱次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版面模式代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LayoutModeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開啟方式代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超連結網址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2048)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超連結開啟方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制項名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ControlName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子網頁的控制項名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隱藏本篇文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隱藏下層項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsHideChild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始有效日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結束有效日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: Wide content, 2: 2-col content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: page, 2: to sub-page, 3: URL, 4: use control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在指定語言版本中顯示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SortNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發表者帳號</t>
+  </si>
+  <si>
+    <t>PostAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發表日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改者帳號</t>
+  </si>
+  <si>
+    <t>MdfAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MdfDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止刪除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DontDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubItemControlName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsShowInLang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbo.ArticleMultiLang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網頁內容的多國語系資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity; clusterd index; *Don't use this field in program!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>橫幅區圖檔名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BannerPicFileName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網頁內容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArticleContext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(max)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被點閱次數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReadCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default(0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版面模式代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LayoutModeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>開啟方式代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超連結網址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LinkUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2048)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超連結開啟方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LinkTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制項名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ControlName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子網頁的控制項名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隱藏本篇文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IsHideSelf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隱藏下層項目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsHideChild</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>開始有效日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>結束有效日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1: Wide content, 2: 2-col content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1: page, 2: to sub-page, 3: URL, 4: use control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在指定語言版本中顯示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SortNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>發表者帳號</t>
-  </si>
-  <si>
-    <t>PostAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>發表日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PostDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改者帳號</t>
-  </si>
-  <si>
-    <t>MdfAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MdfDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁止刪除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DontDelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default(0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubItemControlName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsShowInLang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbo.ArticleMultiLang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網頁內容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網頁內容的多國語系資料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>identity; clusterd index; *Don't use this field in program!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,17 +604,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -631,8 +621,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -950,34 +946,34 @@
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1"/>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="18"/>
+      <c r="F3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
@@ -1043,7 +1039,7 @@
         <v>24</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1103,10 +1099,10 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>29</v>
@@ -1120,17 +1116,17 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1139,17 +1135,17 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1158,13 +1154,13 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1175,10 +1171,10 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>33</v>
@@ -1192,13 +1188,13 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1209,13 +1205,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1226,19 +1222,19 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1247,19 +1243,19 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1268,13 +1264,13 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1285,13 +1281,13 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1302,13 +1298,13 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1319,19 +1315,19 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1340,13 +1336,13 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1357,13 +1353,13 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1374,13 +1370,13 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1391,82 +1387,82 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
     </row>
     <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="3"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
+      <c r="B33" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="18"/>
+      <c r="F33" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8" t="s">
@@ -1555,7 +1551,7 @@
         <v>24</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1581,13 +1577,13 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -1598,19 +1594,19 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1619,19 +1615,19 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1640,13 +1636,13 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -1657,13 +1653,13 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -1674,13 +1670,13 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1691,78 +1687,78 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="12"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="18"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="12"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="18"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
     </row>
     <row r="50" spans="1:7" ht="16.5">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="15"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="13"/>
       <c r="G50" s="3"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="18"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
       <c r="E52" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="18"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="8" t="s">
@@ -1878,56 +1874,70 @@
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="12"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="18"/>
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="12"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="18"/>
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
     </row>
     <row r="66" spans="1:7" ht="16.5">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="15"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="13"/>
       <c r="G66" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D31:F31"/>
@@ -1937,20 +1947,6 @@
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A30:G30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="A65:G65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="A62:G62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
+++ b/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$89</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="123">
   <si>
     <t>表格名稱：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,6 +412,100 @@
   </si>
   <si>
     <t>IsHideSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbo.AttachFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null: 關聯其他單元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbo.AttachFileMultiLang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件檔案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件檔案的多國語系資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件標題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+  </si>
+  <si>
+    <t>AttSubject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(150)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案儲存名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileSavedName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>FileSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案的MIME類型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileMIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FilePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案路徑(目錄資訊)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.g., Dir or Dir1/Dir2. file in the /Attachments/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default(0); KB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -604,11 +698,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -621,14 +724,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -946,34 +1043,34 @@
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1"/>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
@@ -1399,23 +1496,23 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7">
@@ -1423,46 +1520,46 @@
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
       <c r="G31" s="3"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="16"/>
+      <c r="G33" s="19"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8" t="s">
@@ -1699,23 +1796,23 @@
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="18"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7">
@@ -1723,42 +1820,46 @@
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
       <c r="D48" s="11"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="18"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="13"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="1:7" ht="16.5">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
       <c r="D50" s="11"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="13"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="16"/>
       <c r="G50" s="3"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="16"/>
+      <c r="B52" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="19"/>
       <c r="E52" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="14"/>
-      <c r="G52" s="16"/>
+      <c r="F52" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="19"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="8" t="s">
@@ -1790,53 +1891,95 @@
       <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>2</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>3</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="G56" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>4</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="G57" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>5</v>
       </c>
       <c r="B58" s="2"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
@@ -1845,20 +1988,36 @@
         <v>6</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>7</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
@@ -1867,77 +2026,630 @@
         <v>8</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="1">
+        <v>9</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>10</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>11</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>12</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>13</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="1"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="1"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="19" t="s">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-    </row>
-    <row r="66" spans="1:7" ht="16.5">
-      <c r="A66" s="1"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="3"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" spans="1:7" ht="16.5">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="18"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G73" s="19"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>1</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>2</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>3</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>4</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>5</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>6</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
+        <v>7</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>8</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>9</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
+        <v>10</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+    </row>
+    <row r="89" spans="1:7" ht="16.5">
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="17"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="17"/>
+      <c r="G91" s="19"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
+        <v>1</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
+        <v>2</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
+        <v>3</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
+        <v>4</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
+        <v>5</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
+        <v>6</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
+        <v>7</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
+        <v>8</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="3"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+    </row>
+    <row r="105" spans="1:7" ht="16.5">
+      <c r="A105" s="1"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="A65:G65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
+  <mergeCells count="37">
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="A104:G104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="A101:G101"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D31:F31"/>
@@ -1947,6 +2659,20 @@
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A30:G30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="A67:G67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
+++ b/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="131">
   <si>
     <t>表格名稱：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,73 +439,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>附件標題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+  </si>
+  <si>
+    <t>AttSubject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(150)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案儲存名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileSavedName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>FileSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案的MIME類型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileMIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FilePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案路徑(目錄資訊)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.g., Dir or Dir1/Dir2. file in the /Attachments/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default(0); KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網頁內容照片區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>附件檔案的多國語系資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>附件標題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(200)</t>
-  </si>
-  <si>
-    <t>AttSubject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(150)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(500)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>檔案儲存名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileSavedName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>檔案大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>FileSize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>檔案的MIME類型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileMIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FilePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>檔案路徑(目錄資訊)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e.g., Dir or Dir1/Dir2. file in the /Attachments/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default(0); KB</t>
+    <t>網頁內容照片區的多國語系資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbo.ArticlePicture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbo.ArticlePictureMultiLang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PicId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PicSubject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片標題</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -697,6 +729,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1021,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73:D73"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1043,34 +1078,34 @@
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1"/>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
@@ -1496,70 +1531,70 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
       <c r="G31" s="3"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="19"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8" t="s">
@@ -1796,70 +1831,70 @@
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="13"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="13"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
     </row>
     <row r="50" spans="1:7" ht="16.5">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="16"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="17"/>
       <c r="G50" s="3"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G52" s="19"/>
+      <c r="G52" s="20"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="8" t="s">
@@ -1953,17 +1988,17 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1972,13 +2007,13 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="E58" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -1989,19 +2024,19 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>90</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2027,13 +2062,13 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -2128,70 +2163,70 @@
       <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="13"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="14"/>
       <c r="G68" s="3"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="13"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="14"/>
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
     </row>
     <row r="71" spans="1:7" ht="16.5">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="16"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="17"/>
       <c r="G71" s="3"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="18"/>
-      <c r="D73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="20"/>
       <c r="E73" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G73" s="19"/>
+      <c r="F73" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G73" s="20"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="10" t="s">
@@ -2289,13 +2324,13 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -2411,66 +2446,70 @@
       <c r="G84" s="3"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="13"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="14"/>
       <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="13"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="14"/>
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
     </row>
     <row r="89" spans="1:7" ht="16.5">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="16"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="17"/>
       <c r="G89" s="3"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="17"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="19"/>
+      <c r="B91" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" s="19"/>
+      <c r="D91" s="20"/>
       <c r="E91" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="17"/>
-      <c r="G91" s="19"/>
+      <c r="F91" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G91" s="20"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="10" t="s">
@@ -2502,42 +2541,76 @@
       <c r="B93" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
+      <c r="C93" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>2</v>
       </c>
       <c r="B94" s="2"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
+      <c r="C94" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>3</v>
       </c>
       <c r="B95" s="2"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
+      <c r="C95" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
+      <c r="G95" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>4</v>
       </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
+      <c r="C96" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
@@ -2546,20 +2619,36 @@
         <v>5</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
+      <c r="C97" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>6</v>
       </c>
       <c r="B98" s="2"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
+      <c r="C98" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
@@ -2568,9 +2657,15 @@
         <v>7</v>
       </c>
       <c r="B99" s="2"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
+      <c r="C99" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
@@ -2579,77 +2674,585 @@
         <v>8</v>
       </c>
       <c r="B100" s="2"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
+      <c r="C100" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="1">
+        <v>9</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
+        <v>10</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
+        <v>11</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="1"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="3"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="1"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="3"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-    </row>
-    <row r="105" spans="1:7" ht="16.5">
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="16"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="14"/>
       <c r="G105" s="3"/>
     </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+    </row>
+    <row r="108" spans="1:7" ht="16.5">
+      <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C110" s="19"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G110" s="20"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
+        <v>1</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1">
+        <v>2</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1">
+        <v>3</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1">
+        <v>4</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1">
+        <v>5</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1">
+        <v>6</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1">
+        <v>7</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1">
+        <v>8</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1">
+        <v>9</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="3"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+    </row>
+    <row r="125" spans="1:7" ht="16.5">
+      <c r="A125" s="1"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="18"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="18"/>
+      <c r="G127" s="20"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1">
+        <v>1</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1">
+        <v>2</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1">
+        <v>3</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1">
+        <v>4</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1">
+        <v>5</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1">
+        <v>6</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1">
+        <v>7</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1">
+        <v>8</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="3"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="3"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+    </row>
+    <row r="141" spans="1:7" ht="16.5">
+      <c r="A141" s="1"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="A104:G104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="A101:G101"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D87:F87"/>
+  <mergeCells count="51">
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="A140:G140"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D31:F31"/>
@@ -2659,20 +3262,20 @@
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A30:G30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="A70:G70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="A107:G107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="A104:G104"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
+++ b/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
@@ -505,18 +505,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>網頁內容照片區</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>附件檔案的多國語系資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>網頁內容照片區的多國語系資料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dbo.ArticlePicture</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -538,6 +530,14 @@
   </si>
   <si>
     <t>照片標題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網頁照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網頁照片的多國語系資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91:D91"/>
+      <selection activeCell="F110" sqref="F110:G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2224,7 +2224,7 @@
         <v>12</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G73" s="20"/>
     </row>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C91" s="19"/>
       <c r="D91" s="20"/>
@@ -2507,7 +2507,7 @@
         <v>12</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G91" s="20"/>
     </row>
@@ -2542,10 +2542,10 @@
         <v>3</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>16</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C110" s="19"/>
       <c r="D110" s="20"/>
@@ -2799,7 +2799,7 @@
         <v>12</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G110" s="20"/>
     </row>
@@ -2834,10 +2834,10 @@
         <v>3</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>16</v>
@@ -2899,10 +2899,10 @@
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>106</v>
@@ -3225,6 +3225,48 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="A107:G107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="A104:G104"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D123:F123"/>
     <mergeCell ref="D138:F138"/>
     <mergeCell ref="D139:F139"/>
     <mergeCell ref="A140:G140"/>
@@ -3234,48 +3276,6 @@
     <mergeCell ref="B127:D127"/>
     <mergeCell ref="F127:G127"/>
     <mergeCell ref="A137:G137"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="A121:G121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="A70:G70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="A107:G107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="A104:G104"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
+++ b/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="149">
   <si>
     <t>表格名稱：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,6 +538,78 @@
   </si>
   <si>
     <t>網頁照片的多國語系資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbo.ArticleVideo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網頁影片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網頁影片的多國語系資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbo.ArticleVideoMultiLang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影片代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VidId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影片連結網址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VidLinkUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2048)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.g., Youtube v id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SourceVideoId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來源影片代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VidSubject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影片標題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影片說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VidDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -729,6 +801,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1056,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110:G110"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1078,34 +1153,34 @@
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1"/>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
@@ -1531,70 +1606,70 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="3"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="20"/>
+      <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8" t="s">
@@ -1831,70 +1906,70 @@
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="15"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="14"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="15"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
     </row>
     <row r="50" spans="1:7" ht="16.5">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="17"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="18"/>
       <c r="G50" s="3"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="21"/>
       <c r="E52" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="G52" s="20"/>
+      <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="8" t="s">
@@ -2163,70 +2238,70 @@
       <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="14"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="15"/>
       <c r="G68" s="3"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="14"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="15"/>
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
     </row>
     <row r="71" spans="1:7" ht="16.5">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="17"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="18"/>
       <c r="G71" s="3"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="21"/>
       <c r="E73" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="18" t="s">
+      <c r="F73" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="G73" s="20"/>
+      <c r="G73" s="21"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="10" t="s">
@@ -2446,70 +2521,70 @@
       <c r="G84" s="3"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="14"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="15"/>
       <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="14"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="15"/>
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
     </row>
     <row r="89" spans="1:7" ht="16.5">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="17"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="18"/>
       <c r="G89" s="3"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C91" s="19"/>
-      <c r="D91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="21"/>
       <c r="E91" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="18" t="s">
+      <c r="F91" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G91" s="20"/>
+      <c r="G91" s="21"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="10" t="s">
@@ -2738,70 +2813,70 @@
       <c r="G103" s="3"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="14"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="15"/>
       <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="14"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="15"/>
       <c r="G106" s="3"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
     </row>
     <row r="108" spans="1:7" ht="16.5">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="3"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="17"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="18"/>
       <c r="G108" s="3"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C110" s="19"/>
-      <c r="D110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="21"/>
       <c r="E110" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F110" s="18" t="s">
+      <c r="F110" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="G110" s="20"/>
+      <c r="G110" s="21"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="11" t="s">
@@ -3000,66 +3075,70 @@
       <c r="G120" s="3"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="15" t="s">
+      <c r="A121" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B121" s="15"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="14"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="15"/>
       <c r="G122" s="3"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="14"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="15"/>
       <c r="G123" s="3"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="15" t="s">
+      <c r="A124" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
     </row>
     <row r="125" spans="1:7" ht="16.5">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="3"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="17"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="18"/>
       <c r="G125" s="3"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B127" s="18"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="20"/>
+      <c r="B127" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C127" s="20"/>
+      <c r="D127" s="21"/>
       <c r="E127" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F127" s="18"/>
-      <c r="G127" s="20"/>
+      <c r="F127" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G127" s="21"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="11" t="s">
@@ -3091,42 +3170,76 @@
       <c r="B129" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
+      <c r="C129" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>2</v>
       </c>
       <c r="B130" s="2"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
+      <c r="C130" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>3</v>
       </c>
       <c r="B131" s="2"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
+      <c r="C131" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
+      <c r="G131" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>4</v>
       </c>
       <c r="B132" s="2"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
+      <c r="C132" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
@@ -3135,9 +3248,15 @@
         <v>5</v>
       </c>
       <c r="B133" s="2"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
+      <c r="C133" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
@@ -3146,20 +3265,34 @@
         <v>6</v>
       </c>
       <c r="B134" s="2"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
+      <c r="C134" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
+      <c r="G134" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>7</v>
       </c>
       <c r="B135" s="2"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
+      <c r="C135" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
     </row>
@@ -3168,63 +3301,613 @@
         <v>8</v>
       </c>
       <c r="B136" s="2"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
+      <c r="C136" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="15" t="s">
+      <c r="A137" s="1">
+        <v>9</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1">
+        <v>10</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B137" s="15"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="1"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="3"/>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="1"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="3"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B140" s="15"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
+      <c r="A140" s="1"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="14"/>
       <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
-    </row>
-    <row r="141" spans="1:7" ht="16.5">
+      <c r="G140" s="3"/>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="16"/>
-      <c r="F141" s="17"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="15"/>
       <c r="G141" s="3"/>
     </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" s="16"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
+    </row>
+    <row r="143" spans="1:7" ht="16.5">
+      <c r="A143" s="1"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="3"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C145" s="20"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G145" s="21"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1">
+        <v>1</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1">
+        <v>2</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
+        <v>3</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1">
+        <v>4</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1">
+        <v>5</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1">
+        <v>6</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1">
+        <v>7</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1">
+        <v>8</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1">
+        <v>9</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1">
+        <v>10</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B157" s="16"/>
+      <c r="C157" s="16"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="16"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="3"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="3"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" s="16"/>
+      <c r="C160" s="16"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="16"/>
+      <c r="G160" s="16"/>
+    </row>
+    <row r="161" spans="1:7" ht="16.5">
+      <c r="A161" s="1"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="18"/>
+      <c r="G161" s="3"/>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="19"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" s="19"/>
+      <c r="G163" s="21"/>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F164" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G164" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1">
+        <v>1</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1">
+        <v>2</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1">
+        <v>3</v>
+      </c>
+      <c r="B167" s="2"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1">
+        <v>4</v>
+      </c>
+      <c r="B168" s="2"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1">
+        <v>5</v>
+      </c>
+      <c r="B169" s="2"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1">
+        <v>6</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1">
+        <v>7</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1">
+        <v>8</v>
+      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B173" s="16"/>
+      <c r="C173" s="16"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="16"/>
+      <c r="F173" s="16"/>
+      <c r="G173" s="16"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="14"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="3"/>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="14"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="3"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" s="16"/>
+      <c r="C176" s="16"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="16"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="16"/>
+    </row>
+    <row r="177" spans="1:7" ht="16.5">
+      <c r="A177" s="1"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="18"/>
+      <c r="G177" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="65">
+    <mergeCell ref="D174:F174"/>
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="A176:G176"/>
+    <mergeCell ref="D177:F177"/>
+    <mergeCell ref="A160:G160"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="A173:G173"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="A157:G157"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="D159:F159"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="A139:G139"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
     <mergeCell ref="D105:F105"/>
     <mergeCell ref="D106:F106"/>
     <mergeCell ref="A107:G107"/>
@@ -3234,48 +3917,6 @@
     <mergeCell ref="B91:D91"/>
     <mergeCell ref="F91:G91"/>
     <mergeCell ref="A104:G104"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="A70:G70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="A121:G121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="A140:G140"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="A124:G124"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="A137:G137"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
+++ b/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$102</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="184">
   <si>
     <t>表格名稱：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -610,6 +610,146 @@
   </si>
   <si>
     <t>nvarchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>標題位置在橫幅區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectAtBannerArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default(1); 0: at content area;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副標題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subtitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發佈者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PublisherName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發佈日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PublishDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsShowInUnitArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default(0);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在單元區呈現</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在網站導覽呈現</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsShowInSitemap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default(1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台子項目排序欄位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台子項目排序方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SortFieldOfFrontStage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsSortDescOfFrontStage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default(0); 0: asc, 1: desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台子項目清單是否顯示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsListAreaShowInFrontStage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台附件區是否顯示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsAttAreaShowInFrontStage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台照片區是否顯示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsPicAreaShowInFrontStage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台影片區是否顯示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsVideoAreaShowInFrontStage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubItemLinkUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子網頁的超連結網址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1131,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1606,2204 +1746,2295 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
+      <c r="C28" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="1:7" ht="16.5">
-      <c r="A31" s="1"/>
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
+      <c r="C31" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G33" s="21"/>
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>7</v>
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" s="3" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>2</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" s="3" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+    </row>
+    <row r="42" spans="1:7" ht="16.5">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>3</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>4</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1">
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>5</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="3" t="s">
+      <c r="B50" s="2"/>
+      <c r="C50" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1">
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>6</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3" t="s">
+      <c r="B51" s="2"/>
+      <c r="C51" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>7</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="3" t="s">
+      <c r="B52" s="2"/>
+      <c r="C52" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>8</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="3" t="s">
+      <c r="B53" s="2"/>
+      <c r="C53" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="1">
-        <v>9</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1">
-        <v>10</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1">
-        <v>11</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-    </row>
-    <row r="50" spans="1:7" ht="16.5">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="G52" s="21"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1">
-        <v>1</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" s="3" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="3" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="3" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="F56" s="3"/>
-      <c r="G56" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="3" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="F57" s="3"/>
-      <c r="G57" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="3" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="1">
+      <c r="A59" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+    </row>
+    <row r="63" spans="1:7" ht="16.5">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="20"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G65" s="21"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="3" t="s">
+      <c r="F66" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>2</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>3</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>5</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>6</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="1">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>7</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="3" t="s">
+      <c r="B73" s="2"/>
+      <c r="C73" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="1">
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>8</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="3" t="s">
+      <c r="B74" s="2"/>
+      <c r="C74" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="1">
-        <v>9</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="1">
-        <v>10</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="1">
-        <v>11</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="1">
-        <v>12</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="1">
-        <v>13</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="1"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="1"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-    </row>
-    <row r="71" spans="1:7" ht="16.5">
-      <c r="A71" s="1"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="G73" s="21"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1">
-        <v>1</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B75" s="2"/>
       <c r="C75" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1">
-        <v>2</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" s="3" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="3" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="3" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+    </row>
+    <row r="84" spans="1:7" ht="16.5">
+      <c r="A84" s="1"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="20"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G86" s="21"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
+        <v>1</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
+        <v>2</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
+        <v>3</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
+        <v>4</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
+        <v>5</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E92" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F92" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G92" s="3" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="1">
-        <v>6</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="1">
-        <v>7</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="1">
-        <v>8</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="1">
-        <v>9</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="1">
-        <v>10</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="1"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="1"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-    </row>
-    <row r="89" spans="1:7" ht="16.5">
-      <c r="A89" s="1"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="3"/>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C91" s="20"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G91" s="21"/>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1">
-        <v>1</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B93" s="2"/>
       <c r="C93" s="3" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="3" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="3" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="F95" s="3"/>
-      <c r="G95" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="G95" s="3"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+    </row>
+    <row r="102" spans="1:7" ht="16.5">
+      <c r="A102" s="1"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C104" s="20"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G104" s="21"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
+        <v>1</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
+        <v>2</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
+        <v>3</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
+        <v>4</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
+        <v>5</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E110" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="1">
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>6</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="3" t="s">
+      <c r="B111" s="2"/>
+      <c r="C111" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E111" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="1">
-        <v>7</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="1">
-        <v>8</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="1">
-        <v>9</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="1">
-        <v>10</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="1">
-        <v>11</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="1"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="3"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="1"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="3"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-    </row>
-    <row r="108" spans="1:7" ht="16.5">
-      <c r="A108" s="1"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="3"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C110" s="20"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="G110" s="21"/>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1">
-        <v>1</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B112" s="2"/>
       <c r="C112" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1">
-        <v>2</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B113" s="2"/>
       <c r="C113" s="3" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="3" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="3" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F116" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="3"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="3"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="16"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+    </row>
+    <row r="121" spans="1:7" ht="16.5">
+      <c r="A121" s="1"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="3"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123" s="20"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G123" s="21"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1">
+        <v>1</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G116" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="1">
-        <v>6</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="1">
-        <v>7</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="1">
-        <v>8</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="1">
-        <v>9</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="16" t="s">
+      <c r="G125" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1">
         <v>2</v>
       </c>
-      <c r="B121" s="16"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="1"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="3"/>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="1"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="3"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B124" s="16"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-    </row>
-    <row r="125" spans="1:7" ht="16.5">
-      <c r="A125" s="1"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="3"/>
+      <c r="B126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C127" s="20"/>
-      <c r="D127" s="21"/>
-      <c r="E127" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="G127" s="21"/>
+      <c r="A127" s="1">
+        <v>3</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="11" t="s">
+      <c r="A128" s="1">
         <v>4</v>
       </c>
-      <c r="B128" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F128" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G128" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1">
-        <v>1</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B129" s="2"/>
       <c r="C129" s="3" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="3" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="3" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F131" s="3"/>
-      <c r="G131" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="G131" s="3"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="3" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="1">
+      <c r="A134" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="16"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="3"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="3"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" s="16"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16"/>
+    </row>
+    <row r="138" spans="1:7" ht="16.5">
+      <c r="A138" s="1"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="3"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C140" s="20"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G140" s="21"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="1">
+      <c r="F141" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B135" s="2"/>
-      <c r="C135" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="1">
-        <v>8</v>
-      </c>
-      <c r="B136" s="2"/>
-      <c r="C136" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="1">
-        <v>9</v>
-      </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="1">
-        <v>10</v>
-      </c>
-      <c r="B138" s="2"/>
-      <c r="C138" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="16" t="s">
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1">
+        <v>1</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1">
         <v>2</v>
       </c>
-      <c r="B139" s="16"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16"/>
-      <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="1"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="3"/>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="1"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="3"/>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B142" s="16"/>
-      <c r="C142" s="16"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="16"/>
-      <c r="F142" s="16"/>
-      <c r="G142" s="16"/>
-    </row>
-    <row r="143" spans="1:7" ht="16.5">
-      <c r="A143" s="1"/>
       <c r="B143" s="2"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="18"/>
-      <c r="G143" s="3"/>
+      <c r="C143" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1">
+        <v>3</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C145" s="20"/>
-      <c r="D145" s="21"/>
-      <c r="E145" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F145" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="G145" s="21"/>
+      <c r="A145" s="1">
+        <v>4</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C146" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" s="12" t="s">
+      <c r="A146" s="1">
         <v>5</v>
       </c>
-      <c r="E146" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F146" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G146" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="1">
-        <v>1</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B147" s="2"/>
       <c r="C147" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="F147" s="3"/>
       <c r="G147" s="3" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1">
-        <v>2</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B148" s="2"/>
       <c r="C148" s="3" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="3" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="3" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="3" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="1">
+      <c r="A152" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" s="16"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="16"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="3"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="3"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" s="16"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
+    </row>
+    <row r="156" spans="1:7" ht="16.5">
+      <c r="A156" s="1"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="18"/>
+      <c r="G156" s="3"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C158" s="20"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G158" s="21"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B152" s="2"/>
-      <c r="C152" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F152" s="3" t="s">
+      <c r="F159" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G159" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1">
+        <v>1</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F160" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G152" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="1">
-        <v>7</v>
-      </c>
-      <c r="B153" s="2"/>
-      <c r="C153" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="1">
-        <v>8</v>
-      </c>
-      <c r="B154" s="2"/>
-      <c r="C154" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="1">
-        <v>9</v>
-      </c>
-      <c r="B155" s="2"/>
-      <c r="C155" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="1">
-        <v>10</v>
-      </c>
-      <c r="B156" s="2"/>
-      <c r="C156" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="16" t="s">
+      <c r="G160" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1">
         <v>2</v>
       </c>
-      <c r="B157" s="16"/>
-      <c r="C157" s="16"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="16"/>
-      <c r="F157" s="16"/>
-      <c r="G157" s="16"/>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="1"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="3"/>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="1"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="3"/>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B160" s="16"/>
-      <c r="C160" s="16"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="16"/>
-      <c r="F160" s="16"/>
-      <c r="G160" s="16"/>
-    </row>
-    <row r="161" spans="1:7" ht="16.5">
-      <c r="A161" s="1"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="17"/>
-      <c r="F161" s="18"/>
-      <c r="G161" s="3"/>
+      <c r="B161" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1">
+        <v>3</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B163" s="19"/>
-      <c r="C163" s="20"/>
-      <c r="D163" s="21"/>
-      <c r="E163" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F163" s="19"/>
-      <c r="G163" s="21"/>
+      <c r="A163" s="1">
+        <v>4</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B164" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C164" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" s="12" t="s">
+      <c r="A164" s="1">
         <v>5</v>
       </c>
-      <c r="E164" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F164" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G164" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1">
-        <v>1</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B166" s="2"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
+      <c r="C166" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B167" s="2"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
+      <c r="C167" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B168" s="2"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
+      <c r="C168" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B169" s="2"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
+      <c r="C169" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="1">
-        <v>6</v>
-      </c>
-      <c r="B170" s="2"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
+      <c r="A170" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B170" s="16"/>
+      <c r="C170" s="16"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="16"/>
+      <c r="F170" s="16"/>
+      <c r="G170" s="16"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="1">
-        <v>7</v>
-      </c>
+      <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="14"/>
+      <c r="F171" s="15"/>
       <c r="G171" s="3"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="1">
-        <v>8</v>
-      </c>
+      <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="14"/>
+      <c r="F172" s="15"/>
       <c r="G172" s="3"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="16" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B173" s="16"/>
       <c r="C173" s="16"/>
@@ -3812,111 +4043,257 @@
       <c r="F173" s="16"/>
       <c r="G173" s="16"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" ht="16.5">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="3"/>
       <c r="D174" s="13"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="15"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="18"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="1"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="15"/>
-      <c r="G175" s="3"/>
-    </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="16" t="s">
+      <c r="A176" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" s="19"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="21"/>
+      <c r="E176" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176" s="19"/>
+      <c r="G176" s="21"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1">
+        <v>1</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1">
+        <v>2</v>
+      </c>
+      <c r="B179" s="2"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1">
+        <v>3</v>
+      </c>
+      <c r="B180" s="2"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1">
+        <v>4</v>
+      </c>
+      <c r="B181" s="2"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1">
+        <v>5</v>
+      </c>
+      <c r="B182" s="2"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1">
+        <v>6</v>
+      </c>
+      <c r="B183" s="2"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1">
+        <v>7</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1">
+        <v>8</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B186" s="16"/>
+      <c r="C186" s="16"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="16"/>
+      <c r="F186" s="16"/>
+      <c r="G186" s="16"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="13"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="3"/>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="14"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="3"/>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B176" s="16"/>
-      <c r="C176" s="16"/>
-      <c r="D176" s="16"/>
-      <c r="E176" s="16"/>
-      <c r="F176" s="16"/>
-      <c r="G176" s="16"/>
-    </row>
-    <row r="177" spans="1:7" ht="16.5">
-      <c r="A177" s="1"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="17"/>
-      <c r="F177" s="18"/>
-      <c r="G177" s="3"/>
+      <c r="B189" s="16"/>
+      <c r="C189" s="16"/>
+      <c r="D189" s="16"/>
+      <c r="E189" s="16"/>
+      <c r="F189" s="16"/>
+      <c r="G189" s="16"/>
+    </row>
+    <row r="190" spans="1:7" ht="16.5">
+      <c r="A190" s="1"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="17"/>
+      <c r="F190" s="18"/>
+      <c r="G190" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="D174:F174"/>
-    <mergeCell ref="D175:F175"/>
-    <mergeCell ref="A176:G176"/>
-    <mergeCell ref="D177:F177"/>
-    <mergeCell ref="A160:G160"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="B163:D163"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="A173:G173"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="A157:G157"/>
-    <mergeCell ref="D158:F158"/>
-    <mergeCell ref="D159:F159"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="A142:G142"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="A124:G124"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="A139:G139"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="A121:G121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="A70:G70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="A120:G120"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="A101:G101"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="A98:G98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="D100:F100"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D42:F42"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="A107:G107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="A104:G104"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="A134:G134"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="D154:F154"/>
+    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="A152:G152"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="A170:G170"/>
+    <mergeCell ref="D171:F171"/>
+    <mergeCell ref="D172:F172"/>
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="D188:F188"/>
+    <mergeCell ref="A189:G189"/>
+    <mergeCell ref="D190:F190"/>
+    <mergeCell ref="A173:G173"/>
+    <mergeCell ref="D174:F174"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="F176:G176"/>
+    <mergeCell ref="A186:G186"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
+++ b/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="185">
   <si>
     <t>表格名稱：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -677,6 +677,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Default(1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台子項目排序欄位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台子項目排序方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SortFieldOfFrontStage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsSortDescOfFrontStage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default(0); 0: asc, 1: desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台子項目清單是否顯示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsListAreaShowInFrontStage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台附件區是否顯示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsAttAreaShowInFrontStage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台照片區是否顯示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsPicAreaShowInFrontStage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台影片區是否顯示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsVideoAreaShowInFrontStage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubItemLinkUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子網頁的超連結網址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>是否在網站導覽呈現</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -685,71 +753,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Default(1);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台子項目排序欄位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台子項目排序方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SortFieldOfFrontStage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsSortDescOfFrontStage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default(0); 0: asc, 1: desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台子項目清單是否顯示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsListAreaShowInFrontStage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台附件區是否顯示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsAttAreaShowInFrontStage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台照片區是否顯示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsPicAreaShowInFrontStage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台影片區是否顯示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsVideoAreaShowInFrontStage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubItemLinkUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子網頁的超連結網址</t>
+    <t>Not Null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1273,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1759,7 +1763,9 @@
       <c r="E27" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="G27" s="3" t="s">
         <v>152</v>
       </c>
@@ -1795,7 +1801,9 @@
       <c r="E29" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G29" s="3" t="s">
         <v>163</v>
       </c>
@@ -1806,17 +1814,19 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="3" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G30" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1825,13 +1835,13 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1842,17 +1852,19 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G32" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1861,17 +1873,19 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G33" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1880,15 +1894,17 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G34" s="3" t="s">
         <v>163</v>
       </c>
@@ -1899,15 +1915,17 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G35" s="3" t="s">
         <v>163</v>
       </c>
@@ -1918,15 +1936,17 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G36" s="3" t="s">
         <v>163</v>
       </c>
@@ -1937,10 +1957,10 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>53</v>
@@ -4229,6 +4249,62 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="D188:F188"/>
+    <mergeCell ref="A189:G189"/>
+    <mergeCell ref="D190:F190"/>
+    <mergeCell ref="A173:G173"/>
+    <mergeCell ref="D174:F174"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="F176:G176"/>
+    <mergeCell ref="A186:G186"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="A170:G170"/>
+    <mergeCell ref="D171:F171"/>
+    <mergeCell ref="D172:F172"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="D154:F154"/>
+    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="A152:G152"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="A134:G134"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="A98:G98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="D100:F100"/>
     <mergeCell ref="D118:F118"/>
     <mergeCell ref="D119:F119"/>
     <mergeCell ref="A120:G120"/>
@@ -4238,62 +4314,6 @@
     <mergeCell ref="B104:D104"/>
     <mergeCell ref="F104:G104"/>
     <mergeCell ref="A117:G117"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="A98:G98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="A134:G134"/>
-    <mergeCell ref="D135:F135"/>
-    <mergeCell ref="D136:F136"/>
-    <mergeCell ref="D153:F153"/>
-    <mergeCell ref="D154:F154"/>
-    <mergeCell ref="A155:G155"/>
-    <mergeCell ref="D156:F156"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="A152:G152"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="A170:G170"/>
-    <mergeCell ref="D171:F171"/>
-    <mergeCell ref="D172:F172"/>
-    <mergeCell ref="D187:F187"/>
-    <mergeCell ref="D188:F188"/>
-    <mergeCell ref="A189:G189"/>
-    <mergeCell ref="D190:F190"/>
-    <mergeCell ref="A173:G173"/>
-    <mergeCell ref="D174:F174"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="F176:G176"/>
-    <mergeCell ref="A186:G186"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
+++ b/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$102</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$103</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="188">
   <si>
     <t>表格名稱：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -754,6 +754,18 @@
   </si>
   <si>
     <t>Not Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>純文字的網頁內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(max)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1275,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G190"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2303,24 +2315,32 @@
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="1">
+        <v>14</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="3"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1"/>
@@ -2332,327 +2352,327 @@
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-    </row>
-    <row r="63" spans="1:7" ht="16.5">
-      <c r="A63" s="1"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="5" t="s">
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+    </row>
+    <row r="64" spans="1:7" ht="16.5">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B66" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="5" t="s">
+      <c r="C66" s="20"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="19" t="s">
+      <c r="F66" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="G65" s="21"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="8" t="s">
+      <c r="G66" s="21"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B67" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D67" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E67" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F67" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G67" s="8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="1">
-        <v>1</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1">
-        <v>2</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C68" s="3" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G69" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="3" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
+      <c r="G71" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>121</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="3" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="3" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="3" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="1">
+        <v>13</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="1"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="3"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1"/>
@@ -2664,103 +2684,89 @@
       <c r="G82" s="3"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-    </row>
-    <row r="84" spans="1:7" ht="16.5">
-      <c r="A84" s="1"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="3"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="5" t="s">
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+    </row>
+    <row r="85" spans="1:7" ht="16.5">
+      <c r="A85" s="1"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B87" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C86" s="20"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="5" t="s">
+      <c r="C87" s="20"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="19" t="s">
+      <c r="F87" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="G86" s="21"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="10" t="s">
+      <c r="G87" s="21"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B88" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D88" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E88" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="F88" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="G88" s="10" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="1">
-        <v>1</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>24</v>
@@ -2771,171 +2777,185 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1">
-        <v>3</v>
-      </c>
-      <c r="B90" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C90" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="3" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="3" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="3" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="1">
+        <v>10</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="1"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="3"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1"/>
@@ -2947,287 +2967,287 @@
       <c r="G100" s="3"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-    </row>
-    <row r="102" spans="1:7" ht="16.5">
-      <c r="A102" s="1"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="3"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="5" t="s">
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+    </row>
+    <row r="103" spans="1:7" ht="16.5">
+      <c r="A103" s="1"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="3"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="19" t="s">
+      <c r="B105" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C104" s="20"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="5" t="s">
+      <c r="C105" s="20"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F104" s="19" t="s">
+      <c r="F105" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G104" s="21"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="10" t="s">
+      <c r="G105" s="21"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B106" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C106" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D106" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E105" s="10" t="s">
+      <c r="E106" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F105" s="10" t="s">
+      <c r="F106" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G105" s="10" t="s">
+      <c r="G106" s="10" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="1">
-        <v>1</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1">
-        <v>2</v>
-      </c>
-      <c r="B107" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C107" s="3" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F108" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G108" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="3" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
+      <c r="G109" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>121</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="3" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="3" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="3" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="1">
+        <v>11</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="16"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="1"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="3"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1"/>
@@ -3239,103 +3259,89 @@
       <c r="G119" s="3"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="16" t="s">
+      <c r="A120" s="1"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="3"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B120" s="16"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-    </row>
-    <row r="121" spans="1:7" ht="16.5">
-      <c r="A121" s="1"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="3"/>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="5" t="s">
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
+    </row>
+    <row r="122" spans="1:7" ht="16.5">
+      <c r="A122" s="1"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="3"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B123" s="19" t="s">
+      <c r="B124" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C123" s="20"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="5" t="s">
+      <c r="C124" s="20"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F123" s="19" t="s">
+      <c r="F124" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="G123" s="21"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="11" t="s">
+      <c r="G124" s="21"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B125" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C125" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D124" s="11" t="s">
+      <c r="D125" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E124" s="11" t="s">
+      <c r="E125" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F124" s="11" t="s">
+      <c r="F125" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G124" s="11" t="s">
+      <c r="G125" s="11" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="1">
-        <v>1</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>24</v>
@@ -3346,150 +3352,164 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1">
+        <v>2</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B127" s="2"/>
       <c r="C127" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="3" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="3" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="16" t="s">
+      <c r="A134" s="1">
+        <v>9</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B134" s="16"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="16"/>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="1"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="3"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1"/>
@@ -3501,268 +3521,268 @@
       <c r="G136" s="3"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="16" t="s">
+      <c r="A137" s="1"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="3"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B137" s="16"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16"/>
-      <c r="F137" s="16"/>
-      <c r="G137" s="16"/>
-    </row>
-    <row r="138" spans="1:7" ht="16.5">
-      <c r="A138" s="1"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="3"/>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="5" t="s">
+      <c r="B138" s="16"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
+    </row>
+    <row r="139" spans="1:7" ht="16.5">
+      <c r="A139" s="1"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="3"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B140" s="19" t="s">
+      <c r="B141" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C140" s="20"/>
-      <c r="D140" s="21"/>
-      <c r="E140" s="5" t="s">
+      <c r="C141" s="20"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F140" s="19" t="s">
+      <c r="F141" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="G140" s="21"/>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="11" t="s">
+      <c r="G141" s="21"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B142" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C141" s="11" t="s">
+      <c r="C142" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="D142" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E141" s="11" t="s">
+      <c r="E142" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F141" s="11" t="s">
+      <c r="F142" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G141" s="11" t="s">
+      <c r="G142" s="11" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="1">
-        <v>1</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1">
-        <v>2</v>
-      </c>
-      <c r="B143" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C143" s="3" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F144" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G144" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="3" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
+      <c r="G145" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="3" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F147" s="3"/>
-      <c r="G147" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="G147" s="3"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="3" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
+      <c r="G148" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="16" t="s">
+      <c r="A152" s="1">
+        <v>10</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B152" s="16"/>
-      <c r="C152" s="16"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="16"/>
-      <c r="F152" s="16"/>
-      <c r="G152" s="16"/>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="1"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="3"/>
+      <c r="B153" s="16"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1"/>
@@ -3774,103 +3794,89 @@
       <c r="G154" s="3"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="16" t="s">
+      <c r="A155" s="1"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="3"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B155" s="16"/>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="16"/>
-      <c r="G155" s="16"/>
-    </row>
-    <row r="156" spans="1:7" ht="16.5">
-      <c r="A156" s="1"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="18"/>
-      <c r="G156" s="3"/>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="5" t="s">
+      <c r="B156" s="16"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="16"/>
+    </row>
+    <row r="157" spans="1:7" ht="16.5">
+      <c r="A157" s="1"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="18"/>
+      <c r="G157" s="3"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="19" t="s">
+      <c r="B159" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C158" s="20"/>
-      <c r="D158" s="21"/>
-      <c r="E158" s="5" t="s">
+      <c r="C159" s="20"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F158" s="19" t="s">
+      <c r="F159" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="G158" s="21"/>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="12" t="s">
+      <c r="G159" s="21"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B159" s="12" t="s">
+      <c r="B160" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C159" s="12" t="s">
+      <c r="C160" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="12" t="s">
+      <c r="D160" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E159" s="12" t="s">
+      <c r="E160" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F159" s="12" t="s">
+      <c r="F160" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G159" s="12" t="s">
+      <c r="G160" s="12" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="1">
-        <v>1</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>24</v>
@@ -3881,167 +3887,181 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1">
+        <v>2</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B162" s="2"/>
       <c r="C162" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="3" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="3" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G165" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="16" t="s">
+      <c r="A170" s="1">
+        <v>10</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B170" s="16"/>
-      <c r="C170" s="16"/>
-      <c r="D170" s="16"/>
-      <c r="E170" s="16"/>
-      <c r="F170" s="16"/>
-      <c r="G170" s="16"/>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="1"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="15"/>
-      <c r="G171" s="3"/>
+      <c r="B171" s="16"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="16"/>
+      <c r="F171" s="16"/>
+      <c r="G171" s="16"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1"/>
@@ -4053,79 +4073,77 @@
       <c r="G172" s="3"/>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="16" t="s">
+      <c r="A173" s="1"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="14"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="3"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B173" s="16"/>
-      <c r="C173" s="16"/>
-      <c r="D173" s="16"/>
-      <c r="E173" s="16"/>
-      <c r="F173" s="16"/>
-      <c r="G173" s="16"/>
-    </row>
-    <row r="174" spans="1:7" ht="16.5">
-      <c r="A174" s="1"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="17"/>
-      <c r="F174" s="18"/>
-      <c r="G174" s="3"/>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="5" t="s">
+      <c r="B174" s="16"/>
+      <c r="C174" s="16"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="16"/>
+      <c r="F174" s="16"/>
+      <c r="G174" s="16"/>
+    </row>
+    <row r="175" spans="1:7" ht="16.5">
+      <c r="A175" s="1"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="18"/>
+      <c r="G175" s="3"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B176" s="19"/>
-      <c r="C176" s="20"/>
-      <c r="D176" s="21"/>
-      <c r="E176" s="5" t="s">
+      <c r="B177" s="19"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="21"/>
+      <c r="E177" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F176" s="19"/>
-      <c r="G176" s="21"/>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="12" t="s">
+      <c r="F177" s="19"/>
+      <c r="G177" s="21"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B177" s="12" t="s">
+      <c r="B178" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C177" s="12" t="s">
+      <c r="C178" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D177" s="12" t="s">
+      <c r="D178" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E177" s="12" t="s">
+      <c r="E178" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F177" s="12" t="s">
+      <c r="F178" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G177" s="12" t="s">
+      <c r="G178" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="1">
-        <v>1</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="1">
-        <v>2</v>
-      </c>
-      <c r="B179" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -4134,7 +4152,7 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="3"/>
@@ -4145,7 +4163,7 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="3"/>
@@ -4156,7 +4174,7 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="3"/>
@@ -4167,7 +4185,7 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="3"/>
@@ -4178,7 +4196,7 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="3"/>
@@ -4189,7 +4207,7 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="3"/>
@@ -4199,24 +4217,26 @@
       <c r="G185" s="3"/>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="16" t="s">
+      <c r="A186" s="1">
+        <v>8</v>
+      </c>
+      <c r="B186" s="2"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B186" s="16"/>
-      <c r="C186" s="16"/>
-      <c r="D186" s="16"/>
-      <c r="E186" s="16"/>
-      <c r="F186" s="16"/>
-      <c r="G186" s="16"/>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="1"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="13"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="15"/>
-      <c r="G187" s="3"/>
+      <c r="B187" s="16"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="16"/>
+      <c r="F187" s="16"/>
+      <c r="G187" s="16"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1"/>
@@ -4228,69 +4248,50 @@
       <c r="G188" s="3"/>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="16" t="s">
+      <c r="A189" s="1"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="3"/>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B189" s="16"/>
-      <c r="C189" s="16"/>
-      <c r="D189" s="16"/>
-      <c r="E189" s="16"/>
-      <c r="F189" s="16"/>
-      <c r="G189" s="16"/>
-    </row>
-    <row r="190" spans="1:7" ht="16.5">
-      <c r="A190" s="1"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="13"/>
-      <c r="E190" s="17"/>
-      <c r="F190" s="18"/>
-      <c r="G190" s="3"/>
+      <c r="B190" s="16"/>
+      <c r="C190" s="16"/>
+      <c r="D190" s="16"/>
+      <c r="E190" s="16"/>
+      <c r="F190" s="16"/>
+      <c r="G190" s="16"/>
+    </row>
+    <row r="191" spans="1:7" ht="16.5">
+      <c r="A191" s="1"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="17"/>
+      <c r="F191" s="18"/>
+      <c r="G191" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="D187:F187"/>
-    <mergeCell ref="D188:F188"/>
-    <mergeCell ref="A189:G189"/>
-    <mergeCell ref="D190:F190"/>
-    <mergeCell ref="A173:G173"/>
-    <mergeCell ref="D174:F174"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="F176:G176"/>
-    <mergeCell ref="A186:G186"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="A170:G170"/>
-    <mergeCell ref="D171:F171"/>
-    <mergeCell ref="D172:F172"/>
-    <mergeCell ref="D153:F153"/>
-    <mergeCell ref="D154:F154"/>
-    <mergeCell ref="A155:G155"/>
-    <mergeCell ref="D156:F156"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="A152:G152"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="A134:G134"/>
-    <mergeCell ref="D135:F135"/>
-    <mergeCell ref="D136:F136"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="A118:G118"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="A99:G99"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="D101:F101"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D42:F42"/>
@@ -4300,20 +4301,48 @@
     <mergeCell ref="A38:G38"/>
     <mergeCell ref="D39:F39"/>
     <mergeCell ref="A41:G41"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="A98:G98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="A120:G120"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="A101:G101"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="D154:F154"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="A156:G156"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="A138:G138"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="A153:G153"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="A171:G171"/>
+    <mergeCell ref="D172:F172"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="D188:F188"/>
+    <mergeCell ref="D189:F189"/>
+    <mergeCell ref="A190:G190"/>
+    <mergeCell ref="D191:F191"/>
+    <mergeCell ref="A174:G174"/>
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="F177:G177"/>
+    <mergeCell ref="A187:G187"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
+++ b/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="237">
   <si>
     <t>表格名稱：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -766,6 +766,200 @@
   </si>
   <si>
     <t>nvarchar(max)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格名稱：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbo.SearchDataSource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名稱：</t>
+  </si>
+  <si>
+    <t>搜尋用資料來源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍵值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允許Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Null</t>
+  </si>
+  <si>
+    <t>子項目代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>語言文化代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CultureName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網頁標題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleSubject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網頁內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(max)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被點閱次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超連結網址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內容修改日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContentMdfDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足跡用資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(4000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>階層1的網頁代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv1ArticleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發表日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MdfDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外鍵值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-clustered index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2048)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreadcrumbData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-clustered index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-clustered index; e.g., NewsId, BoardId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>format: subject,id,subject,id, …</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -929,7 +1123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -967,6 +1161,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -991,6 +1188,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1287,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G191"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177:D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1309,34 +1509,34 @@
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1"/>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
@@ -1981,70 +2181,70 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7" ht="16.5">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="19"/>
       <c r="G42" s="3"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G44" s="21"/>
+      <c r="G44" s="22"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="8" t="s">
@@ -2089,7 +2289,7 @@
         <v>24</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2332,70 +2532,70 @@
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="15"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="16"/>
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="15"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="16"/>
       <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
     </row>
     <row r="64" spans="1:7" ht="16.5">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="18"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="19"/>
       <c r="G64" s="3"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="22"/>
       <c r="E66" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="19" t="s">
+      <c r="F66" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G66" s="21"/>
+      <c r="G66" s="22"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="8" t="s">
@@ -2664,70 +2864,70 @@
       <c r="G80" s="3"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="15"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="16"/>
       <c r="G82" s="3"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="15"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="16"/>
       <c r="G83" s="3"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
     </row>
     <row r="85" spans="1:7" ht="16.5">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="18"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="19"/>
       <c r="G85" s="3"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="B87" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C87" s="20"/>
-      <c r="D87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="22"/>
       <c r="E87" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F87" s="19" t="s">
+      <c r="F87" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G87" s="21"/>
+      <c r="G87" s="22"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="10" t="s">
@@ -2947,70 +3147,70 @@
       <c r="G98" s="3"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="15"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="16"/>
       <c r="G100" s="3"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="15"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="16"/>
       <c r="G101" s="3"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
     </row>
     <row r="103" spans="1:7" ht="16.5">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="18"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="19"/>
       <c r="G103" s="3"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="19" t="s">
+      <c r="B105" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C105" s="20"/>
-      <c r="D105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="22"/>
       <c r="E105" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F105" s="19" t="s">
+      <c r="F105" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="G105" s="21"/>
+      <c r="G105" s="22"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="10" t="s">
@@ -3239,70 +3439,70 @@
       <c r="G117" s="3"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="16" t="s">
+      <c r="A118" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B118" s="16"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="15"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="16"/>
       <c r="G119" s="3"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="15"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="16"/>
       <c r="G120" s="3"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="16" t="s">
+      <c r="A121" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B121" s="16"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
     </row>
     <row r="122" spans="1:7" ht="16.5">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="18"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="19"/>
       <c r="G122" s="3"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B124" s="19" t="s">
+      <c r="B124" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C124" s="20"/>
-      <c r="D124" s="21"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="22"/>
       <c r="E124" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F124" s="19" t="s">
+      <c r="F124" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="G124" s="21"/>
+      <c r="G124" s="22"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="11" t="s">
@@ -3501,70 +3701,70 @@
       <c r="G134" s="3"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="16" t="s">
+      <c r="A135" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="16"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="16"/>
-      <c r="F135" s="16"/>
-      <c r="G135" s="16"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="15"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="16"/>
       <c r="G136" s="3"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="15"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="16"/>
       <c r="G137" s="3"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="16" t="s">
+      <c r="A138" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B138" s="16"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="16"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
     </row>
     <row r="139" spans="1:7" ht="16.5">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="17"/>
-      <c r="F139" s="18"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="19"/>
       <c r="G139" s="3"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="19" t="s">
+      <c r="B141" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C141" s="20"/>
-      <c r="D141" s="21"/>
+      <c r="C141" s="21"/>
+      <c r="D141" s="22"/>
       <c r="E141" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F141" s="19" t="s">
+      <c r="F141" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="G141" s="21"/>
+      <c r="G141" s="22"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="11" t="s">
@@ -3774,70 +3974,70 @@
       <c r="G152" s="3"/>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="16" t="s">
+      <c r="A153" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B153" s="16"/>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="16"/>
-      <c r="F153" s="16"/>
-      <c r="G153" s="16"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="17"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="3"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="15"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="16"/>
       <c r="G154" s="3"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="3"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="15"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="16"/>
       <c r="G155" s="3"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="16" t="s">
+      <c r="A156" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B156" s="16"/>
-      <c r="C156" s="16"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="16"/>
-      <c r="F156" s="16"/>
-      <c r="G156" s="16"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="17"/>
     </row>
     <row r="157" spans="1:7" ht="16.5">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="3"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="17"/>
-      <c r="F157" s="18"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="19"/>
       <c r="G157" s="3"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B159" s="19" t="s">
+      <c r="B159" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C159" s="20"/>
-      <c r="D159" s="21"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="22"/>
       <c r="E159" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F159" s="19" t="s">
+      <c r="F159" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="G159" s="21"/>
+      <c r="G159" s="22"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="12" t="s">
@@ -4053,88 +4253,92 @@
       <c r="G170" s="3"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="16" t="s">
+      <c r="A171" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B171" s="16"/>
-      <c r="C171" s="16"/>
-      <c r="D171" s="16"/>
-      <c r="E171" s="16"/>
-      <c r="F171" s="16"/>
-      <c r="G171" s="16"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="17"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="3"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="15"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="16"/>
       <c r="G172" s="3"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="3"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="15"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="16"/>
       <c r="G173" s="3"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="16" t="s">
+      <c r="A174" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B174" s="16"/>
-      <c r="C174" s="16"/>
-      <c r="D174" s="16"/>
-      <c r="E174" s="16"/>
-      <c r="F174" s="16"/>
-      <c r="G174" s="16"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="17"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="17"/>
+      <c r="G174" s="17"/>
     </row>
     <row r="175" spans="1:7" ht="16.5">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="3"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="17"/>
-      <c r="F175" s="18"/>
+      <c r="D175" s="14"/>
+      <c r="E175" s="18"/>
+      <c r="F175" s="19"/>
       <c r="G175" s="3"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="20"/>
-      <c r="D177" s="21"/>
+        <v>188</v>
+      </c>
+      <c r="B177" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C177" s="24"/>
+      <c r="D177" s="24"/>
       <c r="E177" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F177" s="19"/>
-      <c r="G177" s="21"/>
+        <v>190</v>
+      </c>
+      <c r="F177" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G177" s="24"/>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B178" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C178" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D178" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E178" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F178" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G178" s="12" t="s">
-        <v>7</v>
+      <c r="A178" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D178" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E178" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F178" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G178" s="13" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4142,55 +4346,105 @@
         <v>1</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
+        <v>199</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="1">
         <v>2</v>
       </c>
-      <c r="B180" s="2"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
+      <c r="B180" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="1">
         <v>3</v>
       </c>
-      <c r="B181" s="2"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
+      <c r="B181" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="1">
         <v>4</v>
       </c>
       <c r="B182" s="2"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
+      <c r="C182" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="1">
         <v>5</v>
       </c>
       <c r="B183" s="2"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
+      <c r="C183" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
     </row>
@@ -4199,9 +4453,15 @@
         <v>6</v>
       </c>
       <c r="B184" s="2"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
+      <c r="C184" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
     </row>
@@ -4210,74 +4470,415 @@
         <v>7</v>
       </c>
       <c r="B185" s="2"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
+      <c r="C185" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="1">
         <v>8</v>
       </c>
       <c r="B186" s="2"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
+      <c r="C186" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="16" t="s">
+      <c r="A187" s="1">
+        <v>9</v>
+      </c>
+      <c r="B187" s="2"/>
+      <c r="C187" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1">
+        <v>10</v>
+      </c>
+      <c r="B188" s="2"/>
+      <c r="C188" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1">
+        <v>11</v>
+      </c>
+      <c r="B189" s="2"/>
+      <c r="C189" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1">
+        <v>12</v>
+      </c>
+      <c r="B190" s="2"/>
+      <c r="C190" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1">
+        <v>13</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B192" s="17"/>
+      <c r="C192" s="17"/>
+      <c r="D192" s="17"/>
+      <c r="E192" s="17"/>
+      <c r="F192" s="17"/>
+      <c r="G192" s="17"/>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="15"/>
+      <c r="F193" s="16"/>
+      <c r="G193" s="3"/>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="15"/>
+      <c r="F194" s="16"/>
+      <c r="G194" s="3"/>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="B195" s="17"/>
+      <c r="C195" s="17"/>
+      <c r="D195" s="17"/>
+      <c r="E195" s="17"/>
+      <c r="F195" s="17"/>
+      <c r="G195" s="17"/>
+    </row>
+    <row r="196" spans="1:7" ht="16.5">
+      <c r="A196" s="1"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="18"/>
+      <c r="F196" s="19"/>
+      <c r="G196" s="3"/>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198" s="20"/>
+      <c r="C198" s="21"/>
+      <c r="D198" s="22"/>
+      <c r="E198" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198" s="20"/>
+      <c r="G198" s="22"/>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E199" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F199" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G199" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1">
+        <v>1</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1">
         <v>2</v>
       </c>
-      <c r="B187" s="16"/>
-      <c r="C187" s="16"/>
-      <c r="D187" s="16"/>
-      <c r="E187" s="16"/>
-      <c r="F187" s="16"/>
-      <c r="G187" s="16"/>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="1"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="13"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="15"/>
-      <c r="G188" s="3"/>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="1"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="13"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="15"/>
-      <c r="G189" s="3"/>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="16" t="s">
+      <c r="B201" s="2"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1">
+        <v>3</v>
+      </c>
+      <c r="B202" s="2"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1">
+        <v>4</v>
+      </c>
+      <c r="B203" s="2"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1">
+        <v>5</v>
+      </c>
+      <c r="B204" s="2"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1">
+        <v>6</v>
+      </c>
+      <c r="B205" s="2"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1">
+        <v>7</v>
+      </c>
+      <c r="B206" s="2"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1">
+        <v>8</v>
+      </c>
+      <c r="B207" s="2"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B208" s="17"/>
+      <c r="C208" s="17"/>
+      <c r="D208" s="17"/>
+      <c r="E208" s="17"/>
+      <c r="F208" s="17"/>
+      <c r="G208" s="17"/>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="14"/>
+      <c r="E209" s="15"/>
+      <c r="F209" s="16"/>
+      <c r="G209" s="3"/>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="15"/>
+      <c r="F210" s="16"/>
+      <c r="G210" s="3"/>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B190" s="16"/>
-      <c r="C190" s="16"/>
-      <c r="D190" s="16"/>
-      <c r="E190" s="16"/>
-      <c r="F190" s="16"/>
-      <c r="G190" s="16"/>
-    </row>
-    <row r="191" spans="1:7" ht="16.5">
-      <c r="A191" s="1"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="13"/>
-      <c r="E191" s="17"/>
-      <c r="F191" s="18"/>
-      <c r="G191" s="3"/>
+      <c r="B211" s="17"/>
+      <c r="C211" s="17"/>
+      <c r="D211" s="17"/>
+      <c r="E211" s="17"/>
+      <c r="F211" s="17"/>
+      <c r="G211" s="17"/>
+    </row>
+    <row r="212" spans="1:7" ht="16.5">
+      <c r="A212" s="1"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="18"/>
+      <c r="F212" s="19"/>
+      <c r="G212" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="72">
+    <mergeCell ref="D209:F209"/>
+    <mergeCell ref="D210:F210"/>
+    <mergeCell ref="A211:G211"/>
+    <mergeCell ref="D212:F212"/>
+    <mergeCell ref="A174:G174"/>
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="B198:D198"/>
+    <mergeCell ref="F198:G198"/>
+    <mergeCell ref="A208:G208"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="F177:G177"/>
+    <mergeCell ref="A192:G192"/>
+    <mergeCell ref="D193:F193"/>
+    <mergeCell ref="D194:F194"/>
+    <mergeCell ref="A195:G195"/>
+    <mergeCell ref="D196:F196"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="A171:G171"/>
+    <mergeCell ref="D172:F172"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="D154:F154"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="A156:G156"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="A138:G138"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="A153:G153"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="A99:G99"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="D101:F101"/>
     <mergeCell ref="D119:F119"/>
     <mergeCell ref="D120:F120"/>
     <mergeCell ref="A121:G121"/>
@@ -4287,62 +4888,6 @@
     <mergeCell ref="B105:D105"/>
     <mergeCell ref="F105:G105"/>
     <mergeCell ref="A118:G118"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="A99:G99"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="A81:G81"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="A135:G135"/>
-    <mergeCell ref="D136:F136"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="D154:F154"/>
-    <mergeCell ref="D155:F155"/>
-    <mergeCell ref="A156:G156"/>
-    <mergeCell ref="D157:F157"/>
-    <mergeCell ref="A138:G138"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="A153:G153"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="A171:G171"/>
-    <mergeCell ref="D172:F172"/>
-    <mergeCell ref="D173:F173"/>
-    <mergeCell ref="D188:F188"/>
-    <mergeCell ref="D189:F189"/>
-    <mergeCell ref="A190:G190"/>
-    <mergeCell ref="D191:F191"/>
-    <mergeCell ref="A174:G174"/>
-    <mergeCell ref="D175:F175"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="F177:G177"/>
-    <mergeCell ref="A187:G187"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
+++ b/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="256">
   <si>
     <t>表格名稱：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -960,6 +960,82 @@
   </si>
   <si>
     <t>format: subject,id,subject,id, …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbo.Keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜尋關鍵字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seqno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IX_Keyword_Kw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique(CultureName, Kw)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>語言文化代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CultureName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關鍵字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被使用次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UsedCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1123,7 +1199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1164,6 +1240,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1187,10 +1266,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1487,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177:D177"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198:D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1509,34 +1588,34 @@
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1"/>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
@@ -2181,70 +2260,70 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="16"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="16"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7" ht="16.5">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="3"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F44" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G44" s="22"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="8" t="s">
@@ -2532,70 +2611,70 @@
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="16"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="17"/>
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="16"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="17"/>
       <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
     </row>
     <row r="64" spans="1:7" ht="16.5">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="19"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="20"/>
       <c r="G64" s="3"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="23"/>
       <c r="E66" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="20" t="s">
+      <c r="F66" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="G66" s="22"/>
+      <c r="G66" s="23"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="8" t="s">
@@ -2864,70 +2943,70 @@
       <c r="G80" s="3"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="17" t="s">
+      <c r="A81" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="16"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="17"/>
       <c r="G82" s="3"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="16"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="17"/>
       <c r="G83" s="3"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
     </row>
     <row r="85" spans="1:7" ht="16.5">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="19"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="20"/>
       <c r="G85" s="3"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C87" s="21"/>
-      <c r="D87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="23"/>
       <c r="E87" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F87" s="20" t="s">
+      <c r="F87" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="G87" s="22"/>
+      <c r="G87" s="23"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="10" t="s">
@@ -3147,70 +3226,70 @@
       <c r="G98" s="3"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="17" t="s">
+      <c r="A99" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="16"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="17"/>
       <c r="G100" s="3"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="16"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="17"/>
       <c r="G101" s="3"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="17" t="s">
+      <c r="A102" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
     </row>
     <row r="103" spans="1:7" ht="16.5">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="19"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="20"/>
       <c r="G103" s="3"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C105" s="21"/>
-      <c r="D105" s="22"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="23"/>
       <c r="E105" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F105" s="20" t="s">
+      <c r="F105" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G105" s="22"/>
+      <c r="G105" s="23"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="10" t="s">
@@ -3439,70 +3518,70 @@
       <c r="G117" s="3"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="17" t="s">
+      <c r="A118" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B118" s="17"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="16"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="17"/>
       <c r="G119" s="3"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="16"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="17"/>
       <c r="G120" s="3"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="17" t="s">
+      <c r="A121" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18"/>
     </row>
     <row r="122" spans="1:7" ht="16.5">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="19"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="20"/>
       <c r="G122" s="3"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C124" s="21"/>
-      <c r="D124" s="22"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="23"/>
       <c r="E124" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F124" s="20" t="s">
+      <c r="F124" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="G124" s="22"/>
+      <c r="G124" s="23"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="11" t="s">
@@ -3701,70 +3780,70 @@
       <c r="G134" s="3"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="17" t="s">
+      <c r="A135" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="17"/>
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
-      <c r="E135" s="17"/>
-      <c r="F135" s="17"/>
-      <c r="G135" s="17"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="16"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="17"/>
       <c r="G136" s="3"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="15"/>
-      <c r="F137" s="16"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="17"/>
       <c r="G137" s="3"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="17" t="s">
+      <c r="A138" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B138" s="17"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="17"/>
-      <c r="G138" s="17"/>
+      <c r="B138" s="18"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="18"/>
     </row>
     <row r="139" spans="1:7" ht="16.5">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="19"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="20"/>
       <c r="G139" s="3"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="20" t="s">
+      <c r="B141" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C141" s="21"/>
-      <c r="D141" s="22"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="23"/>
       <c r="E141" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F141" s="20" t="s">
+      <c r="F141" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G141" s="22"/>
+      <c r="G141" s="23"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="11" t="s">
@@ -3974,70 +4053,70 @@
       <c r="G152" s="3"/>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="17" t="s">
+      <c r="A153" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B153" s="17"/>
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
-      <c r="E153" s="17"/>
-      <c r="F153" s="17"/>
-      <c r="G153" s="17"/>
+      <c r="B153" s="18"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="3"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="16"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="17"/>
       <c r="G154" s="3"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="3"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="15"/>
-      <c r="F155" s="16"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="17"/>
       <c r="G155" s="3"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="17" t="s">
+      <c r="A156" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B156" s="17"/>
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="17"/>
-      <c r="G156" s="17"/>
+      <c r="B156" s="18"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="18"/>
+      <c r="E156" s="18"/>
+      <c r="F156" s="18"/>
+      <c r="G156" s="18"/>
     </row>
     <row r="157" spans="1:7" ht="16.5">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="3"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="18"/>
-      <c r="F157" s="19"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="20"/>
       <c r="G157" s="3"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B159" s="20" t="s">
+      <c r="B159" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C159" s="21"/>
-      <c r="D159" s="22"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="23"/>
       <c r="E159" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F159" s="20" t="s">
+      <c r="F159" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="G159" s="22"/>
+      <c r="G159" s="23"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="12" t="s">
@@ -4253,52 +4332,52 @@
       <c r="G170" s="3"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="17" t="s">
+      <c r="A171" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B171" s="17"/>
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="17"/>
-      <c r="G171" s="17"/>
+      <c r="B171" s="18"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="18"/>
+      <c r="E171" s="18"/>
+      <c r="F171" s="18"/>
+      <c r="G171" s="18"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="3"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="15"/>
-      <c r="F172" s="16"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="16"/>
+      <c r="F172" s="17"/>
       <c r="G172" s="3"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="3"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="15"/>
-      <c r="F173" s="16"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="16"/>
+      <c r="F173" s="17"/>
       <c r="G173" s="3"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="17" t="s">
+      <c r="A174" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B174" s="17"/>
-      <c r="C174" s="17"/>
-      <c r="D174" s="17"/>
-      <c r="E174" s="17"/>
-      <c r="F174" s="17"/>
-      <c r="G174" s="17"/>
+      <c r="B174" s="18"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="18"/>
     </row>
     <row r="175" spans="1:7" ht="16.5">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="3"/>
-      <c r="D175" s="14"/>
-      <c r="E175" s="18"/>
-      <c r="F175" s="19"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="20"/>
       <c r="G175" s="3"/>
     </row>
     <row r="177" spans="1:7">
@@ -4591,66 +4670,70 @@
       <c r="G191" s="3"/>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="17" t="s">
+      <c r="A192" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="B192" s="17"/>
-      <c r="C192" s="17"/>
-      <c r="D192" s="17"/>
-      <c r="E192" s="17"/>
-      <c r="F192" s="17"/>
-      <c r="G192" s="17"/>
+      <c r="B192" s="18"/>
+      <c r="C192" s="18"/>
+      <c r="D192" s="18"/>
+      <c r="E192" s="18"/>
+      <c r="F192" s="18"/>
+      <c r="G192" s="18"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="3"/>
-      <c r="D193" s="14"/>
-      <c r="E193" s="15"/>
-      <c r="F193" s="16"/>
+      <c r="D193" s="15"/>
+      <c r="E193" s="16"/>
+      <c r="F193" s="17"/>
       <c r="G193" s="3"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="3"/>
-      <c r="D194" s="14"/>
-      <c r="E194" s="15"/>
-      <c r="F194" s="16"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="16"/>
+      <c r="F194" s="17"/>
       <c r="G194" s="3"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="17" t="s">
+      <c r="A195" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="B195" s="17"/>
-      <c r="C195" s="17"/>
-      <c r="D195" s="17"/>
-      <c r="E195" s="17"/>
-      <c r="F195" s="17"/>
-      <c r="G195" s="17"/>
+      <c r="B195" s="18"/>
+      <c r="C195" s="18"/>
+      <c r="D195" s="18"/>
+      <c r="E195" s="18"/>
+      <c r="F195" s="18"/>
+      <c r="G195" s="18"/>
     </row>
     <row r="196" spans="1:7" ht="16.5">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="3"/>
-      <c r="D196" s="14"/>
-      <c r="E196" s="18"/>
-      <c r="F196" s="19"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="19"/>
+      <c r="F196" s="20"/>
       <c r="G196" s="3"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B198" s="20"/>
-      <c r="C198" s="21"/>
-      <c r="D198" s="22"/>
+      <c r="B198" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C198" s="22"/>
+      <c r="D198" s="23"/>
       <c r="E198" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F198" s="20"/>
-      <c r="G198" s="22"/>
+      <c r="F198" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="G198" s="23"/>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="12" t="s">
@@ -4680,23 +4763,41 @@
         <v>1</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
+        <v>239</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="1">
         <v>2</v>
       </c>
       <c r="B201" s="2"/>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
+      <c r="C201" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="G201" s="3"/>
     </row>
     <row r="202" spans="1:7">
@@ -4704,10 +4805,18 @@
         <v>3</v>
       </c>
       <c r="B202" s="2"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3"/>
+      <c r="C202" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="G202" s="3"/>
     </row>
     <row r="203" spans="1:7">
@@ -4715,128 +4824,301 @@
         <v>4</v>
       </c>
       <c r="B203" s="2"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
+      <c r="C203" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="1">
-        <v>5</v>
-      </c>
-      <c r="B204" s="2"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
+      <c r="A204" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B204" s="18"/>
+      <c r="C204" s="18"/>
+      <c r="D204" s="18"/>
+      <c r="E204" s="18"/>
+      <c r="F204" s="18"/>
+      <c r="G204" s="18"/>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="1">
-        <v>6</v>
-      </c>
+      <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="16"/>
+      <c r="F205" s="17"/>
       <c r="G205" s="3"/>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="1">
-        <v>7</v>
-      </c>
+      <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="16"/>
+      <c r="F206" s="17"/>
       <c r="G206" s="3"/>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="1">
+      <c r="A207" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B207" s="18"/>
+      <c r="C207" s="18"/>
+      <c r="D207" s="18"/>
+      <c r="E207" s="18"/>
+      <c r="F207" s="18"/>
+      <c r="G207" s="18"/>
+    </row>
+    <row r="208" spans="1:7" ht="16.5">
+      <c r="A208" s="1"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E208" s="19"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" s="21"/>
+      <c r="C210" s="22"/>
+      <c r="D210" s="23"/>
+      <c r="E210" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210" s="21"/>
+      <c r="G210" s="23"/>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B211" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B207" s="2"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="A208" s="17" t="s">
+      <c r="D211" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E211" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F211" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G211" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1">
+        <v>1</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1">
         <v>2</v>
       </c>
-      <c r="B208" s="17"/>
-      <c r="C208" s="17"/>
-      <c r="D208" s="17"/>
-      <c r="E208" s="17"/>
-      <c r="F208" s="17"/>
-      <c r="G208" s="17"/>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="1"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="14"/>
-      <c r="E209" s="15"/>
-      <c r="F209" s="16"/>
-      <c r="G209" s="3"/>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="1"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="14"/>
-      <c r="E210" s="15"/>
-      <c r="F210" s="16"/>
-      <c r="G210" s="3"/>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="17" t="s">
+      <c r="B213" s="2"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1">
+        <v>3</v>
+      </c>
+      <c r="B214" s="2"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1">
+        <v>4</v>
+      </c>
+      <c r="B215" s="2"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1">
+        <v>5</v>
+      </c>
+      <c r="B216" s="2"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1">
+        <v>6</v>
+      </c>
+      <c r="B217" s="2"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1">
+        <v>7</v>
+      </c>
+      <c r="B218" s="2"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1">
+        <v>8</v>
+      </c>
+      <c r="B219" s="2"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B220" s="18"/>
+      <c r="C220" s="18"/>
+      <c r="D220" s="18"/>
+      <c r="E220" s="18"/>
+      <c r="F220" s="18"/>
+      <c r="G220" s="18"/>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="15"/>
+      <c r="E221" s="16"/>
+      <c r="F221" s="17"/>
+      <c r="G221" s="3"/>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="15"/>
+      <c r="E222" s="16"/>
+      <c r="F222" s="17"/>
+      <c r="G222" s="3"/>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B211" s="17"/>
-      <c r="C211" s="17"/>
-      <c r="D211" s="17"/>
-      <c r="E211" s="17"/>
-      <c r="F211" s="17"/>
-      <c r="G211" s="17"/>
-    </row>
-    <row r="212" spans="1:7" ht="16.5">
-      <c r="A212" s="1"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="14"/>
-      <c r="E212" s="18"/>
-      <c r="F212" s="19"/>
-      <c r="G212" s="3"/>
+      <c r="B223" s="18"/>
+      <c r="C223" s="18"/>
+      <c r="D223" s="18"/>
+      <c r="E223" s="18"/>
+      <c r="F223" s="18"/>
+      <c r="G223" s="18"/>
+    </row>
+    <row r="224" spans="1:7" ht="16.5">
+      <c r="A224" s="1"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="15"/>
+      <c r="E224" s="19"/>
+      <c r="F224" s="20"/>
+      <c r="G224" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="D209:F209"/>
-    <mergeCell ref="D210:F210"/>
-    <mergeCell ref="A211:G211"/>
-    <mergeCell ref="D212:F212"/>
-    <mergeCell ref="A174:G174"/>
-    <mergeCell ref="D175:F175"/>
-    <mergeCell ref="B198:D198"/>
-    <mergeCell ref="F198:G198"/>
-    <mergeCell ref="A208:G208"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="F177:G177"/>
-    <mergeCell ref="A192:G192"/>
-    <mergeCell ref="D193:F193"/>
-    <mergeCell ref="D194:F194"/>
-    <mergeCell ref="A195:G195"/>
-    <mergeCell ref="D196:F196"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="A171:G171"/>
-    <mergeCell ref="D172:F172"/>
-    <mergeCell ref="D173:F173"/>
+  <mergeCells count="79">
+    <mergeCell ref="A223:G223"/>
+    <mergeCell ref="D224:F224"/>
+    <mergeCell ref="B210:D210"/>
+    <mergeCell ref="F210:G210"/>
+    <mergeCell ref="A220:G220"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="D222:F222"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="A118:G118"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="A99:G99"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="D137:F137"/>
     <mergeCell ref="D154:F154"/>
     <mergeCell ref="D155:F155"/>
     <mergeCell ref="A156:G156"/>
@@ -4846,48 +5128,27 @@
     <mergeCell ref="B141:D141"/>
     <mergeCell ref="F141:G141"/>
     <mergeCell ref="A153:G153"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="A135:G135"/>
-    <mergeCell ref="D136:F136"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="A81:G81"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="A99:G99"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="A121:G121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="A118:G118"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="A171:G171"/>
+    <mergeCell ref="D172:F172"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="D205:F205"/>
+    <mergeCell ref="D206:F206"/>
+    <mergeCell ref="A207:G207"/>
+    <mergeCell ref="D208:F208"/>
+    <mergeCell ref="A174:G174"/>
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="B198:D198"/>
+    <mergeCell ref="F198:G198"/>
+    <mergeCell ref="A204:G204"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="F177:G177"/>
+    <mergeCell ref="A192:G192"/>
+    <mergeCell ref="D193:F193"/>
+    <mergeCell ref="D194:F194"/>
+    <mergeCell ref="A195:G195"/>
+    <mergeCell ref="D196:F196"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
+++ b/Documents/3.系統設計(Design_Phase)/ArticlePublisher.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="254">
   <si>
     <t>表格名稱：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -780,262 +780,254 @@
     <t>中文名稱：</t>
   </si>
   <si>
+    <t>序號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍵值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允許Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Null</t>
+  </si>
+  <si>
+    <t>子項目代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>語言文化代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CultureName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網頁標題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleSubject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網頁內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(max)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被點閱次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超連結網址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足跡用資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(4000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>階層1的網頁代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv1ArticleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發表日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MdfDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外鍵值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-clustered index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2048)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreadcrumbData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-clustered index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>format: subject,id,subject,id, …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbo.Keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜尋關鍵字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seqno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IX_Keyword_Kw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique(CultureName, Kw)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>語言文化代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CultureName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關鍵字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被使用次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UsedCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default('00000000-0000-0000-0000-000000000000'); non-clustered index; e.g., NewsId, BoardId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>搜尋用資料來源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鍵值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>允許Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>說明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not Null</t>
-  </si>
-  <si>
-    <t>子項目代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>語言文化代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CultureName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網頁標題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArticleSubject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網頁內容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArticleContext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(max)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被點閱次數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReadCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default(0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超連結網址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LinkUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>內容修改日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContentMdfDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>足跡用資料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(4000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>階層1的網頁代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv1ArticleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>發表日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PostDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MdfDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外鍵值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>non-clustered index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2048)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BreadcrumbData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>non-clustered index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>non-clustered index; e.g., NewsId, BoardId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>format: subject,id,subject,id, …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbo.Keyword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜尋關鍵字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>identity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seqno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IX_Keyword_Kw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique(CultureName, Kw)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>語言文化代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CultureName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>關鍵字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被使用次數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UsedCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1199,7 +1191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1242,6 +1234,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1568,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198:D198"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1588,34 +1583,34 @@
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1"/>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
@@ -2260,70 +2255,70 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="17"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="17"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
     </row>
     <row r="42" spans="1:7" ht="16.5">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
       <c r="G42" s="3"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G44" s="23"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="8" t="s">
@@ -2368,7 +2363,7 @@
         <v>24</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2611,70 +2606,70 @@
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="17"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="18"/>
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="17"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="18"/>
       <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
     </row>
     <row r="64" spans="1:7" ht="16.5">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="20"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="21"/>
       <c r="G64" s="3"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="24"/>
       <c r="E66" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="21" t="s">
+      <c r="F66" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="G66" s="23"/>
+      <c r="G66" s="24"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="8" t="s">
@@ -2943,70 +2938,70 @@
       <c r="G80" s="3"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="18" t="s">
+      <c r="A81" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="17"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="18"/>
       <c r="G82" s="3"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="17"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="18"/>
       <c r="G83" s="3"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="18" t="s">
+      <c r="A84" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
     </row>
     <row r="85" spans="1:7" ht="16.5">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="20"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="21"/>
       <c r="G85" s="3"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C87" s="22"/>
-      <c r="D87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="24"/>
       <c r="E87" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F87" s="21" t="s">
+      <c r="F87" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="G87" s="23"/>
+      <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="10" t="s">
@@ -3226,70 +3221,70 @@
       <c r="G98" s="3"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="18" t="s">
+      <c r="A99" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="17"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="18"/>
       <c r="G100" s="3"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="17"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="18"/>
       <c r="G101" s="3"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
     </row>
     <row r="103" spans="1:7" ht="16.5">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="20"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="21"/>
       <c r="G103" s="3"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="21" t="s">
+      <c r="B105" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C105" s="22"/>
-      <c r="D105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="24"/>
       <c r="E105" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F105" s="21" t="s">
+      <c r="F105" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G105" s="23"/>
+      <c r="G105" s="24"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="10" t="s">
@@ -3518,70 +3513,70 @@
       <c r="G117" s="3"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="18" t="s">
+      <c r="A118" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B118" s="18"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="17"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="18"/>
       <c r="G119" s="3"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="17"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="18"/>
       <c r="G120" s="3"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="18" t="s">
+      <c r="A121" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B121" s="18"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
     </row>
     <row r="122" spans="1:7" ht="16.5">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="20"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="21"/>
       <c r="G122" s="3"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B124" s="21" t="s">
+      <c r="B124" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C124" s="22"/>
-      <c r="D124" s="23"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="24"/>
       <c r="E124" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F124" s="21" t="s">
+      <c r="F124" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G124" s="23"/>
+      <c r="G124" s="24"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="11" t="s">
@@ -3780,70 +3775,70 @@
       <c r="G134" s="3"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="18" t="s">
+      <c r="A135" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="18"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="19"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="17"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="18"/>
       <c r="G136" s="3"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="16"/>
-      <c r="F137" s="17"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="18"/>
       <c r="G137" s="3"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="18" t="s">
+      <c r="A138" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B138" s="18"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="18"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19"/>
     </row>
     <row r="139" spans="1:7" ht="16.5">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="20"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="21"/>
       <c r="G139" s="3"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="21" t="s">
+      <c r="B141" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C141" s="22"/>
-      <c r="D141" s="23"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="24"/>
       <c r="E141" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F141" s="21" t="s">
+      <c r="F141" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G141" s="23"/>
+      <c r="G141" s="24"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="11" t="s">
@@ -4053,70 +4048,70 @@
       <c r="G152" s="3"/>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="18" t="s">
+      <c r="A153" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B153" s="18"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="3"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="16"/>
-      <c r="F154" s="17"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="18"/>
       <c r="G154" s="3"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="3"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="17"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="18"/>
       <c r="G155" s="3"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="18" t="s">
+      <c r="A156" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B156" s="18"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="18"/>
-      <c r="E156" s="18"/>
-      <c r="F156" s="18"/>
-      <c r="G156" s="18"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="19"/>
     </row>
     <row r="157" spans="1:7" ht="16.5">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="3"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="19"/>
-      <c r="F157" s="20"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="21"/>
       <c r="G157" s="3"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B159" s="21" t="s">
+      <c r="B159" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C159" s="22"/>
-      <c r="D159" s="23"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="24"/>
       <c r="E159" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F159" s="21" t="s">
+      <c r="F159" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="G159" s="23"/>
+      <c r="G159" s="24"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="12" t="s">
@@ -4332,92 +4327,92 @@
       <c r="G170" s="3"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="18" t="s">
+      <c r="A171" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B171" s="18"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18"/>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="3"/>
-      <c r="D172" s="15"/>
-      <c r="E172" s="16"/>
-      <c r="F172" s="17"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="18"/>
       <c r="G172" s="3"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="3"/>
-      <c r="D173" s="15"/>
-      <c r="E173" s="16"/>
-      <c r="F173" s="17"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="18"/>
       <c r="G173" s="3"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="18" t="s">
+      <c r="A174" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B174" s="18"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="19"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
     </row>
     <row r="175" spans="1:7" ht="16.5">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="3"/>
-      <c r="D175" s="15"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="20"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="21"/>
       <c r="G175" s="3"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B177" s="24" t="s">
+      <c r="B177" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="C177" s="24"/>
-      <c r="D177" s="24"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="25"/>
       <c r="E177" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F177" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="G177" s="24"/>
+      <c r="F177" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="G177" s="25"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B178" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B178" s="13" t="s">
+      <c r="C178" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C178" s="13" t="s">
+      <c r="D178" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D178" s="13" t="s">
+      <c r="E178" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E178" s="13" t="s">
+      <c r="F178" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F178" s="13" t="s">
+      <c r="G178" s="13" t="s">
         <v>197</v>
-      </c>
-      <c r="G178" s="13" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4425,7 +4420,7 @@
         <v>1</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>18</v>
@@ -4440,21 +4435,21 @@
         <v>24</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="28.5">
       <c r="A180" s="1">
         <v>2</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C180" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D180" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>16</v>
@@ -4462,8 +4457,8 @@
       <c r="F180" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G180" s="3" t="s">
-        <v>235</v>
+      <c r="G180" s="15" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4471,22 +4466,22 @@
         <v>3</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C181" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D181" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="E181" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E181" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="F181" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4516,13 +4511,13 @@
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="E183" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
@@ -4533,13 +4528,13 @@
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D184" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="E184" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -4550,19 +4545,19 @@
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D185" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="E185" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G185" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4571,13 +4566,13 @@
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D186" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="E186" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
@@ -4588,13 +4583,13 @@
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="3" t="s">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -4605,17 +4600,17 @@
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F188" s="3"/>
       <c r="G188" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4624,10 +4619,10 @@
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>16</v>
@@ -4641,13 +4636,13 @@
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
@@ -4658,82 +4653,82 @@
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="B192" s="18"/>
-      <c r="C192" s="18"/>
-      <c r="D192" s="18"/>
-      <c r="E192" s="18"/>
-      <c r="F192" s="18"/>
-      <c r="G192" s="18"/>
+      <c r="A192" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B192" s="19"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="19"/>
+      <c r="E192" s="19"/>
+      <c r="F192" s="19"/>
+      <c r="G192" s="19"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="3"/>
-      <c r="D193" s="15"/>
-      <c r="E193" s="16"/>
-      <c r="F193" s="17"/>
+      <c r="D193" s="16"/>
+      <c r="E193" s="17"/>
+      <c r="F193" s="18"/>
       <c r="G193" s="3"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="3"/>
-      <c r="D194" s="15"/>
-      <c r="E194" s="16"/>
-      <c r="F194" s="17"/>
+      <c r="D194" s="16"/>
+      <c r="E194" s="17"/>
+      <c r="F194" s="18"/>
       <c r="G194" s="3"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="B195" s="18"/>
-      <c r="C195" s="18"/>
-      <c r="D195" s="18"/>
-      <c r="E195" s="18"/>
-      <c r="F195" s="18"/>
-      <c r="G195" s="18"/>
+      <c r="A195" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B195" s="19"/>
+      <c r="C195" s="19"/>
+      <c r="D195" s="19"/>
+      <c r="E195" s="19"/>
+      <c r="F195" s="19"/>
+      <c r="G195" s="19"/>
     </row>
     <row r="196" spans="1:7" ht="16.5">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="3"/>
-      <c r="D196" s="15"/>
-      <c r="E196" s="19"/>
-      <c r="F196" s="20"/>
+      <c r="D196" s="16"/>
+      <c r="E196" s="20"/>
+      <c r="F196" s="21"/>
       <c r="G196" s="3"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B198" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="C198" s="22"/>
-      <c r="D198" s="23"/>
+      <c r="B198" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C198" s="23"/>
+      <c r="D198" s="24"/>
       <c r="E198" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F198" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="G198" s="23"/>
+      <c r="F198" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="G198" s="24"/>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="12" t="s">
@@ -4763,22 +4758,22 @@
         <v>1</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C200" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C200" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="D200" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -4787,16 +4782,16 @@
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G201" s="3"/>
     </row>
@@ -4806,16 +4801,16 @@
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G202" s="3"/>
     </row>
@@ -4825,86 +4820,86 @@
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="18" t="s">
+      <c r="A204" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B204" s="18"/>
-      <c r="C204" s="18"/>
-      <c r="D204" s="18"/>
-      <c r="E204" s="18"/>
-      <c r="F204" s="18"/>
-      <c r="G204" s="18"/>
+      <c r="B204" s="19"/>
+      <c r="C204" s="19"/>
+      <c r="D204" s="19"/>
+      <c r="E204" s="19"/>
+      <c r="F204" s="19"/>
+      <c r="G204" s="19"/>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="3"/>
-      <c r="D205" s="15"/>
-      <c r="E205" s="16"/>
-      <c r="F205" s="17"/>
+      <c r="D205" s="16"/>
+      <c r="E205" s="17"/>
+      <c r="F205" s="18"/>
       <c r="G205" s="3"/>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="3"/>
-      <c r="D206" s="15"/>
-      <c r="E206" s="16"/>
-      <c r="F206" s="17"/>
+      <c r="D206" s="16"/>
+      <c r="E206" s="17"/>
+      <c r="F206" s="18"/>
       <c r="G206" s="3"/>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="18" t="s">
+      <c r="A207" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B207" s="18"/>
-      <c r="C207" s="18"/>
-      <c r="D207" s="18"/>
-      <c r="E207" s="18"/>
-      <c r="F207" s="18"/>
-      <c r="G207" s="18"/>
+      <c r="B207" s="19"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="19"/>
+      <c r="E207" s="19"/>
+      <c r="F207" s="19"/>
+      <c r="G207" s="19"/>
     </row>
     <row r="208" spans="1:7" ht="16.5">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="3"/>
-      <c r="D208" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="E208" s="19"/>
-      <c r="F208" s="20"/>
+      <c r="D208" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="E208" s="20"/>
+      <c r="F208" s="21"/>
       <c r="G208" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B210" s="21"/>
-      <c r="C210" s="22"/>
-      <c r="D210" s="23"/>
+      <c r="B210" s="22"/>
+      <c r="C210" s="23"/>
+      <c r="D210" s="24"/>
       <c r="E210" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F210" s="21"/>
-      <c r="G210" s="23"/>
+      <c r="F210" s="22"/>
+      <c r="G210" s="24"/>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="14" t="s">
@@ -5020,52 +5015,52 @@
       <c r="G219" s="3"/>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="18" t="s">
+      <c r="A220" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B220" s="18"/>
-      <c r="C220" s="18"/>
-      <c r="D220" s="18"/>
-      <c r="E220" s="18"/>
-      <c r="F220" s="18"/>
-      <c r="G220" s="18"/>
+      <c r="B220" s="19"/>
+      <c r="C220" s="19"/>
+      <c r="D220" s="19"/>
+      <c r="E220" s="19"/>
+      <c r="F220" s="19"/>
+      <c r="G220" s="19"/>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="3"/>
-      <c r="D221" s="15"/>
-      <c r="E221" s="16"/>
-      <c r="F221" s="17"/>
+      <c r="D221" s="16"/>
+      <c r="E221" s="17"/>
+      <c r="F221" s="18"/>
       <c r="G221" s="3"/>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="3"/>
-      <c r="D222" s="15"/>
-      <c r="E222" s="16"/>
-      <c r="F222" s="17"/>
+      <c r="D222" s="16"/>
+      <c r="E222" s="17"/>
+      <c r="F222" s="18"/>
       <c r="G222" s="3"/>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="18" t="s">
+      <c r="A223" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B223" s="18"/>
-      <c r="C223" s="18"/>
-      <c r="D223" s="18"/>
-      <c r="E223" s="18"/>
-      <c r="F223" s="18"/>
-      <c r="G223" s="18"/>
+      <c r="B223" s="19"/>
+      <c r="C223" s="19"/>
+      <c r="D223" s="19"/>
+      <c r="E223" s="19"/>
+      <c r="F223" s="19"/>
+      <c r="G223" s="19"/>
     </row>
     <row r="224" spans="1:7" ht="16.5">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="3"/>
-      <c r="D224" s="15"/>
-      <c r="E224" s="19"/>
-      <c r="F224" s="20"/>
+      <c r="D224" s="16"/>
+      <c r="E224" s="20"/>
+      <c r="F224" s="21"/>
       <c r="G224" s="3"/>
     </row>
   </sheetData>
